--- a/src/subjects.xlsx
+++ b/src/subjects.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,27 +441,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MI1111</t>
+          <t>MI1121</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Giải tích 1.5</t>
+          <t>Giải tích 2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MI1121</t>
+          <t>MI1131</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Giải tích 2</t>
+          <t>Giải tích 3</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -471,30 +471,60 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MI1131</t>
+          <t>MI3041</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Giải tích 3</t>
+          <t>Giải tích số</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MI3041</t>
+          <t>EM3190</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Giải tích số</t>
+          <t>Hành vi của tổ chức</t>
         </is>
       </c>
       <c r="C5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MI3090</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MI3310</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kỹ thuật lập trình</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>2</v>
       </c>
     </row>

--- a/src/subjects.xlsx
+++ b/src/subjects.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,6 +528,21 @@
         <v>2</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>EM3211</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nguyên lý marketing</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
